--- a/m6A papers/Rice/Rice_performance_comapre.xlsx
+++ b/m6A papers/Rice/Rice_performance_comapre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\paper_implement\m6A papers\Rice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92068D2-20D1-4DB2-A1CC-A6FF7591A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D15E1-65A1-44E6-B51D-765588066772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,14 +291,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549522</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14656</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>69507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>556848</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21983</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>161337</xdr:rowOff>
     </xdr:to>
@@ -323,7 +323,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6601560" y="1652122"/>
+          <a:off x="6674829" y="1652122"/>
           <a:ext cx="7304942" cy="883138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1286,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>94.73</v>
+        <v>95.06</v>
       </c>
       <c r="E3">
-        <v>93.72</v>
+        <v>92.96</v>
       </c>
       <c r="F3">
-        <v>94.23</v>
+        <v>94.01</v>
       </c>
       <c r="G3">
-        <v>0.88500000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="H3">
-        <v>0.98099999999999998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
